--- a/SeleniumTests.AccountPayables/TestDataAccess/Data.xlsx
+++ b/SeleniumTests.AccountPayables/TestDataAccess/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -573,22 +573,25 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="11.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
